--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1546304.775976599</v>
+        <v>-1549163.584130849</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>116.3904202560421</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>116.3904202560421</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>185.7623892993075</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>65.57256410180578</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.68201868835093</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>173.0161271962133</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>47.32891336229404</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.7581465331949</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.5176918809201</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.1193145391077</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>195.2784421291699</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6578039426845</v>
+        <v>11.65780394268447</v>
       </c>
       <c r="H8" t="n">
-        <v>302.1461261669077</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.9611458040277</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.1401528507289</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>10.8296257636247</v>
       </c>
       <c r="G9" t="n">
-        <v>23.40491590545659</v>
+        <v>135.3933057711207</v>
       </c>
       <c r="H9" t="n">
-        <v>93.40050789710146</v>
+        <v>93.40050789710141</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.25119676410755</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.4588498516408</v>
+        <v>135.4588498516407</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3040082153012</v>
+        <v>192.3040082153011</v>
       </c>
       <c r="U9" t="n">
         <v>225.8130786999163</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.679051331529</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3559876391771</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.6906097669175</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>106.2818148601347</v>
+        <v>106.2818148601345</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>103.7782182538339</v>
       </c>
       <c r="S10" t="n">
-        <v>50.43204291339121</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9597157186236</v>
       </c>
       <c r="U10" t="n">
         <v>286.2298479899846</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>105.9893107373036</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>180.1003471321689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>102.1557845699813</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>86.26216629270428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569545</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>32.27552175740353</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.962173606588</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261725</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545293</v>
       </c>
       <c r="F34" t="n">
-        <v>121.136400530892</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541867</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652571</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808186</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352484</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972043</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969973</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="C2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="D2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="E2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G2" t="n">
-        <v>278.0688281361897</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H2" t="n">
         <v>20.40683023386418</v>
@@ -4328,19 +4328,19 @@
         <v>20.40683023386418</v>
       </c>
       <c r="J2" t="n">
-        <v>101.5286049718923</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K2" t="n">
-        <v>184.0917595464847</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L2" t="n">
-        <v>323.4204153877379</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M2" t="n">
-        <v>510.1198282131455</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N2" t="n">
-        <v>704.4540411051279</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O2" t="n">
         <v>874.6230664220874</v>
@@ -4367,13 +4367,13 @@
         <v>395.6349092028989</v>
       </c>
       <c r="W2" t="n">
-        <v>395.6349092028989</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="X2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="Y2" t="n">
-        <v>395.6349092028989</v>
+        <v>20.40683023386418</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>389.6991261859259</v>
+        <v>332.3012571557692</v>
       </c>
       <c r="C3" t="n">
-        <v>215.2460969047989</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="D3" t="n">
-        <v>66.31168724354769</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31168724354769</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="F3" t="n">
-        <v>66.31168724354769</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="G3" t="n">
-        <v>66.31168724354769</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H3" t="n">
-        <v>66.31168724354769</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I3" t="n">
         <v>20.40683023386418</v>
@@ -4413,10 +4413,10 @@
         <v>206.6739017541169</v>
       </c>
       <c r="L3" t="n">
-        <v>351.2485522879031</v>
+        <v>343.9034997698108</v>
       </c>
       <c r="M3" t="n">
-        <v>530.7458886425079</v>
+        <v>523.4008361244156</v>
       </c>
       <c r="N3" t="n">
         <v>729.4026302951726</v>
@@ -4431,28 +4431,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="S3" t="n">
-        <v>1020.341511693209</v>
+        <v>849.7628229580305</v>
       </c>
       <c r="T3" t="n">
-        <v>1020.341511693209</v>
+        <v>652.7735271181181</v>
       </c>
       <c r="U3" t="n">
-        <v>832.7027346232014</v>
+        <v>652.7735271181181</v>
       </c>
       <c r="V3" t="n">
-        <v>597.5506263914588</v>
+        <v>586.5386138839708</v>
       </c>
       <c r="W3" t="n">
-        <v>597.5506263914588</v>
+        <v>332.3012571557692</v>
       </c>
       <c r="X3" t="n">
-        <v>389.6991261859259</v>
+        <v>332.3012571557692</v>
       </c>
       <c r="Y3" t="n">
-        <v>389.6991261859259</v>
+        <v>332.3012571557692</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.4152973620648</v>
+        <v>51.39876830290552</v>
       </c>
       <c r="C4" t="n">
-        <v>460.4152973620648</v>
+        <v>51.39876830290552</v>
       </c>
       <c r="D4" t="n">
-        <v>460.4152973620648</v>
+        <v>51.39876830290552</v>
       </c>
       <c r="E4" t="n">
-        <v>460.4152973620648</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F4" t="n">
-        <v>313.5253498641545</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G4" t="n">
-        <v>144.9185048595379</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9185048595379</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I4" t="n">
         <v>20.40683023386418</v>
@@ -4510,28 +4510,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S4" t="n">
-        <v>715.0997855679517</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T4" t="n">
-        <v>715.0997855679517</v>
+        <v>794.7123150055739</v>
       </c>
       <c r="U4" t="n">
-        <v>715.0997855679517</v>
+        <v>537.0503171032484</v>
       </c>
       <c r="V4" t="n">
-        <v>460.4152973620648</v>
+        <v>537.0503171032484</v>
       </c>
       <c r="W4" t="n">
-        <v>460.4152973620648</v>
+        <v>279.3883192009229</v>
       </c>
       <c r="X4" t="n">
-        <v>460.4152973620648</v>
+        <v>51.39876830290552</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.4152973620648</v>
+        <v>51.39876830290552</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4568,19 +4568,19 @@
         <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052544</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515908</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4644,25 +4644,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551328</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>121.6535314649674</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M6" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289999</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>840.076354622418</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>840.076354622418</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4695121254205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4695121254205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4695121254205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640389</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W7" t="n">
-        <v>712.4590630234379</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4695121254205</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4695121254205</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1935.312560295738</v>
+        <v>257.5883263333957</v>
       </c>
       <c r="C8" t="n">
-        <v>1566.350043355326</v>
+        <v>257.5883263333957</v>
       </c>
       <c r="D8" t="n">
-        <v>1566.350043355326</v>
+        <v>257.5883263333957</v>
       </c>
       <c r="E8" t="n">
-        <v>1180.561790757082</v>
+        <v>257.5883263333957</v>
       </c>
       <c r="F8" t="n">
-        <v>769.5758859674741</v>
+        <v>60.33737468776956</v>
       </c>
       <c r="G8" t="n">
-        <v>353.7599223890049</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="H8" t="n">
-        <v>48.56181514970418</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="I8" t="n">
-        <v>48.56181514970418</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="J8" t="n">
-        <v>175.5919586551138</v>
+        <v>175.591958655115</v>
       </c>
       <c r="K8" t="n">
-        <v>416.7157328480266</v>
+        <v>416.7157328480289</v>
       </c>
       <c r="L8" t="n">
-        <v>752.752858214888</v>
+        <v>752.7528582148921</v>
       </c>
       <c r="M8" t="n">
-        <v>1158.328345051914</v>
+        <v>1158.328345051919</v>
       </c>
       <c r="N8" t="n">
-        <v>1575.080275660913</v>
+        <v>1575.08027566092</v>
       </c>
       <c r="O8" t="n">
-        <v>1955.272044794122</v>
+        <v>1955.272044794131</v>
       </c>
       <c r="P8" t="n">
-        <v>2245.255922842909</v>
+        <v>2245.25592284292</v>
       </c>
       <c r="Q8" t="n">
-        <v>2414.848991985956</v>
+        <v>2414.848991985968</v>
       </c>
       <c r="R8" t="n">
-        <v>2428.090757485209</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="S8" t="n">
-        <v>2428.090757485209</v>
+        <v>2300.857276875093</v>
       </c>
       <c r="T8" t="n">
-        <v>2428.090757485209</v>
+        <v>2091.624799248094</v>
       </c>
       <c r="U8" t="n">
-        <v>2428.090757485209</v>
+        <v>2091.624799248094</v>
       </c>
       <c r="V8" t="n">
-        <v>2428.090757485209</v>
+        <v>1760.561911904523</v>
       </c>
       <c r="W8" t="n">
-        <v>2428.090757485209</v>
+        <v>1407.793256634409</v>
       </c>
       <c r="X8" t="n">
-        <v>2054.624999224129</v>
+        <v>1034.327498373329</v>
       </c>
       <c r="Y8" t="n">
-        <v>2054.624999224129</v>
+        <v>644.1881663975175</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.7065436388934</v>
+        <v>795.7065436389062</v>
       </c>
       <c r="C9" t="n">
-        <v>621.2535143577664</v>
+        <v>621.2535143577792</v>
       </c>
       <c r="D9" t="n">
-        <v>472.3191046965152</v>
+        <v>472.3191046965279</v>
       </c>
       <c r="E9" t="n">
-        <v>313.0816496910597</v>
+        <v>313.0816496910724</v>
       </c>
       <c r="F9" t="n">
-        <v>166.5470917179447</v>
+        <v>302.1426337682192</v>
       </c>
       <c r="G9" t="n">
-        <v>142.9057625205137</v>
+        <v>165.3817188478953</v>
       </c>
       <c r="H9" t="n">
-        <v>48.56181514970418</v>
+        <v>71.0377714770858</v>
       </c>
       <c r="I9" t="n">
-        <v>48.56181514970418</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="J9" t="n">
-        <v>230.2323764079345</v>
+        <v>230.2323764079352</v>
       </c>
       <c r="K9" t="n">
-        <v>555.3594912108312</v>
+        <v>405.5365601318723</v>
       </c>
       <c r="L9" t="n">
-        <v>837.4001412627848</v>
+        <v>687.5772101838271</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.885145047644</v>
+        <v>1036.062213968687</v>
       </c>
       <c r="N9" t="n">
-        <v>1558.002154848943</v>
+        <v>1408.179223769988</v>
       </c>
       <c r="O9" t="n">
-        <v>1876.196724659628</v>
+        <v>1726.373793580675</v>
       </c>
       <c r="P9" t="n">
-        <v>2112.242853218231</v>
+        <v>2091.525773319881</v>
       </c>
       <c r="Q9" t="n">
-        <v>2428.090757485209</v>
+        <v>2407.37367758686</v>
       </c>
       <c r="R9" t="n">
-        <v>2428.090757485209</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="S9" t="n">
-        <v>2291.263636422946</v>
+        <v>2291.263636422958</v>
       </c>
       <c r="T9" t="n">
-        <v>2097.017163478197</v>
+        <v>2097.01716347821</v>
       </c>
       <c r="U9" t="n">
-        <v>1868.923144589392</v>
+        <v>1868.923144589405</v>
       </c>
       <c r="V9" t="n">
-        <v>1633.77103635765</v>
+        <v>1633.771036357663</v>
       </c>
       <c r="W9" t="n">
-        <v>1379.533679629448</v>
+        <v>1379.533679629461</v>
       </c>
       <c r="X9" t="n">
-        <v>1171.682179423915</v>
+        <v>1171.682179423928</v>
       </c>
       <c r="Y9" t="n">
-        <v>963.9218806589615</v>
+        <v>963.9218806589743</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.1359689539763</v>
+        <v>264.6839022119908</v>
       </c>
       <c r="C10" t="n">
-        <v>473.1359689539763</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="D10" t="n">
-        <v>473.1359689539763</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="E10" t="n">
-        <v>473.1359689539763</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="F10" t="n">
-        <v>473.1359689539763</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="G10" t="n">
-        <v>305.0996178032923</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="H10" t="n">
-        <v>155.9171836952947</v>
+        <v>155.9171836952949</v>
       </c>
       <c r="I10" t="n">
-        <v>48.56181514970418</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="J10" t="n">
-        <v>70.57420224187652</v>
+        <v>70.57420224187707</v>
       </c>
       <c r="K10" t="n">
-        <v>236.5841528860243</v>
+        <v>236.5841528860254</v>
       </c>
       <c r="L10" t="n">
-        <v>504.5461690879217</v>
+        <v>504.5461690879235</v>
       </c>
       <c r="M10" t="n">
-        <v>797.4636672203005</v>
+        <v>797.463667220303</v>
       </c>
       <c r="N10" t="n">
-        <v>1088.850858371744</v>
+        <v>1088.850858371748</v>
       </c>
       <c r="O10" t="n">
-        <v>1341.977796269159</v>
+        <v>1341.977796269163</v>
       </c>
       <c r="P10" t="n">
-        <v>1535.050938441308</v>
+        <v>1535.050938441312</v>
       </c>
       <c r="Q10" t="n">
-        <v>1585.289694158857</v>
+        <v>1585.289694158862</v>
       </c>
       <c r="R10" t="n">
-        <v>1585.289694158857</v>
+        <v>1480.463211074181</v>
       </c>
       <c r="S10" t="n">
-        <v>1534.348236670583</v>
+        <v>1480.463211074181</v>
       </c>
       <c r="T10" t="n">
-        <v>1534.348236670583</v>
+        <v>1257.271579035167</v>
       </c>
       <c r="U10" t="n">
-        <v>1245.227178094841</v>
+        <v>968.1505204594251</v>
       </c>
       <c r="V10" t="n">
-        <v>990.5426898889543</v>
+        <v>713.4660322535383</v>
       </c>
       <c r="W10" t="n">
-        <v>701.1255198519937</v>
+        <v>713.4660322535383</v>
       </c>
       <c r="X10" t="n">
-        <v>473.1359689539763</v>
+        <v>485.4764813555209</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.1359689539763</v>
+        <v>264.6839022119908</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2272.857469997003</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.857469997003</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,10 +5501,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5543,13 +5543,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5601,16 +5601,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297712</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>197.0043242297712</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,16 +6476,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492579</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319343</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656837</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150044</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942676</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580137</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.55530363455</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400518</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,13 +7318,13 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,13 +7333,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,16 +7424,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7628,37 +7628,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,13 +7731,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7822,31 +7822,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.49244923701501</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>60.49244923701494</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.419244967769941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.419244967769998</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>28.18495819153222</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>151.336294019152</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>130.4099506874783</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>24.59532647964254</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>28.19014749235064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>296.5264836898947</v>
+        <v>197.1782496596717</v>
       </c>
       <c r="H2" t="n">
-        <v>59.95550615191332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>232.8505484613709</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>114.6457227551668</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>31.43762041328876</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.03697526434104</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9259388694757149</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>38.13892827624255</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>199.9223080965399</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>114.1584408891656</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-4.074814687533316e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>-4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1278575.222091908</v>
+        <v>1278575.222091907</v>
       </c>
     </row>
     <row r="12">
@@ -26314,22 +26314,22 @@
         <v>118476.4986260253</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262495</v>
       </c>
       <c r="E2" t="n">
+        <v>141250.654945751</v>
+      </c>
+      <c r="F2" t="n">
         <v>141250.6549457511</v>
-      </c>
-      <c r="F2" t="n">
-        <v>141250.6549457512</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26347,13 +26347,13 @@
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>21526.81581402936</v>
       </c>
       <c r="D3" t="n">
-        <v>357247.7748456913</v>
+        <v>357247.7748456943</v>
       </c>
       <c r="E3" t="n">
-        <v>539509.6920798714</v>
+        <v>539509.6920798685</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.577083870728405e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>66741.55862136451</v>
       </c>
       <c r="K3" t="n">
-        <v>2220.700322863238</v>
+        <v>2220.70032286318</v>
       </c>
       <c r="L3" t="n">
-        <v>106316.0878658428</v>
+        <v>106316.0878658437</v>
       </c>
       <c r="M3" t="n">
-        <v>140971.1139454988</v>
+        <v>140971.113945498</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>169849.0966935769</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>144085.4293086932</v>
+        <v>144085.4293086923</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731989</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.31242673194</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731985</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426731984</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731974</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426731964</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731985</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732011</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982549</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982547</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16108.17168982545</v>
+      </c>
+      <c r="O4" t="n">
         <v>16108.17168982546</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>16108.17168982546</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16108.17168982539</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16108.17168982545</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90300.14304378151</v>
+        <v>90300.14304378176</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770813.430613513</v>
+        <v>-771173.5136292304</v>
       </c>
       <c r="C6" t="n">
-        <v>-187646.1766902772</v>
+        <v>-187646.1766902774</v>
       </c>
       <c r="D6" t="n">
-        <v>-447951.0374719165</v>
+        <v>-447951.0374719189</v>
       </c>
       <c r="E6" t="n">
-        <v>-507498.8793847595</v>
+        <v>-507533.6173101923</v>
       </c>
       <c r="F6" t="n">
-        <v>32010.81269511206</v>
+        <v>31976.07476967634</v>
       </c>
       <c r="G6" t="n">
-        <v>32010.81269511204</v>
+        <v>31976.07476967644</v>
       </c>
       <c r="H6" t="n">
-        <v>32010.81269511196</v>
+        <v>31976.07476967628</v>
       </c>
       <c r="I6" t="n">
-        <v>32010.81269511198</v>
+        <v>31976.07476967637</v>
       </c>
       <c r="J6" t="n">
-        <v>-34730.74592625248</v>
+        <v>-34765.4838516882</v>
       </c>
       <c r="K6" t="n">
-        <v>29790.11237224872</v>
+        <v>29755.3744468131</v>
       </c>
       <c r="L6" t="n">
-        <v>-81906.06568333403</v>
+        <v>-81906.06568333496</v>
       </c>
       <c r="M6" t="n">
-        <v>-116561.09176299</v>
+        <v>-116561.0917629892</v>
       </c>
       <c r="N6" t="n">
+        <v>24410.02218250875</v>
+      </c>
+      <c r="O6" t="n">
         <v>24410.02218250881</v>
       </c>
-      <c r="O6" t="n">
-        <v>24410.02218250885</v>
-      </c>
       <c r="P6" t="n">
-        <v>24410.02218250881</v>
+        <v>24410.02218250875</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>906.67722614708</v>
+        <v>906.6772261470824</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>607.0226893713022</v>
+        <v>607.0226893713054</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-7.503331289626658e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.072135483841051e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>20.57891343141307</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6222123776018</v>
+        <v>292.6222123776042</v>
       </c>
       <c r="E3" t="n">
-        <v>461.2982741945938</v>
+        <v>461.2982741945914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>8.628502078203894</v>
       </c>
       <c r="D4" t="n">
-        <v>343.3088093697961</v>
+        <v>343.3088093697993</v>
       </c>
       <c r="E4" t="n">
-        <v>565.6855987283461</v>
+        <v>565.6855987283429</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>255.0853779233023</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078204122</v>
+        <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697959</v>
+        <v>343.3088093697993</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283461</v>
+        <v>565.6855987283429</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.072135483841051e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697961</v>
+        <v>343.3088093697993</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283461</v>
+        <v>565.6855987283429</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>337.0827442786569</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>215.7386542862651</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>40.09501031463839</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>167.2280230476195</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>115.7519439582182</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>17.69584188176898</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>32.34975470390532</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>31.17527673479473</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.7929277964372</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>147.5120742225828</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27822,7 +27822,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>170.7648518033961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.06696147117472</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264.6145271243728</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>211.5976036125415</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.1461261669077</v>
       </c>
       <c r="I8" t="n">
-        <v>69.95458801850518</v>
+        <v>69.95458801850481</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.9611458040279</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.140152850729</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0540582220405</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>134.2395866297592</v>
       </c>
       <c r="G9" t="n">
-        <v>111.9883898656641</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>22.25119676410773</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.56776976709887</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3559876391771</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.6906097669175</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.7782182538341</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>145.0911085248277</v>
+        <v>195.5231514382189</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9597157186237</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203983</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.64493357245057</v>
+        <v>3.64493357245058</v>
       </c>
       <c r="H8" t="n">
-        <v>37.32867594885941</v>
+        <v>37.32867594885951</v>
       </c>
       <c r="I8" t="n">
-        <v>140.5213015519007</v>
+        <v>140.5213015519011</v>
       </c>
       <c r="J8" t="n">
-        <v>309.3591807947769</v>
+        <v>309.3591807947777</v>
       </c>
       <c r="K8" t="n">
-        <v>463.6492189166096</v>
+        <v>463.6492189166108</v>
       </c>
       <c r="L8" t="n">
-        <v>575.1978547344938</v>
+        <v>575.1978547344953</v>
       </c>
       <c r="M8" t="n">
-        <v>640.0184421535616</v>
+        <v>640.0184421535633</v>
       </c>
       <c r="N8" t="n">
-        <v>650.3746096662868</v>
+        <v>650.3746096662886</v>
       </c>
       <c r="O8" t="n">
-        <v>614.1303014552315</v>
+        <v>614.1303014552331</v>
       </c>
       <c r="P8" t="n">
-        <v>524.1460038853579</v>
+        <v>524.1460038853593</v>
       </c>
       <c r="Q8" t="n">
-        <v>393.6118203219718</v>
+        <v>393.6118203219728</v>
       </c>
       <c r="R8" t="n">
-        <v>228.9610585204483</v>
+        <v>228.9610585204489</v>
       </c>
       <c r="S8" t="n">
-        <v>83.05892378221745</v>
+        <v>83.05892378221766</v>
       </c>
       <c r="T8" t="n">
-        <v>15.95569671340238</v>
+        <v>15.95569671340242</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2915946857960455</v>
+        <v>0.2915946857960463</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.950211392089946</v>
+        <v>1.950211392089951</v>
       </c>
       <c r="H9" t="n">
-        <v>18.834936339395</v>
+        <v>18.83493633939505</v>
       </c>
       <c r="I9" t="n">
-        <v>67.14543608730735</v>
+        <v>67.14543608730753</v>
       </c>
       <c r="J9" t="n">
-        <v>184.2522087588137</v>
+        <v>184.2522087588142</v>
       </c>
       <c r="K9" t="n">
-        <v>314.91637202884</v>
+        <v>314.9163720288409</v>
       </c>
       <c r="L9" t="n">
-        <v>423.4439252868981</v>
+        <v>423.4439252868992</v>
       </c>
       <c r="M9" t="n">
-        <v>494.1390882501585</v>
+        <v>494.1390882501598</v>
       </c>
       <c r="N9" t="n">
-        <v>507.2174795593934</v>
+        <v>507.2174795593947</v>
       </c>
       <c r="O9" t="n">
-        <v>464.004900818874</v>
+        <v>464.0049008188752</v>
       </c>
       <c r="P9" t="n">
-        <v>372.4048403018073</v>
+        <v>372.4048403018083</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.9427734885341</v>
+        <v>248.9427734885348</v>
       </c>
       <c r="R9" t="n">
-        <v>121.0841774843214</v>
+        <v>121.0841774843217</v>
       </c>
       <c r="S9" t="n">
-        <v>36.22432125219699</v>
+        <v>36.22432125219709</v>
       </c>
       <c r="T9" t="n">
-        <v>7.860720479520436</v>
+        <v>7.860720479520457</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1283033810585491</v>
+        <v>0.1283033810585494</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.634991719281619</v>
+        <v>1.634991719281624</v>
       </c>
       <c r="H10" t="n">
-        <v>14.53656274052205</v>
+        <v>14.53656274052208</v>
       </c>
       <c r="I10" t="n">
-        <v>49.16866006712362</v>
+        <v>49.16866006712375</v>
       </c>
       <c r="J10" t="n">
-        <v>115.5939145532105</v>
+        <v>115.5939145532108</v>
       </c>
       <c r="K10" t="n">
-        <v>189.9563106583554</v>
+        <v>189.9563106583559</v>
       </c>
       <c r="L10" t="n">
-        <v>243.0786779739237</v>
+        <v>243.0786779739244</v>
       </c>
       <c r="M10" t="n">
-        <v>256.292383777936</v>
+        <v>256.2923837779367</v>
       </c>
       <c r="N10" t="n">
-        <v>250.1983237333411</v>
+        <v>250.1983237333417</v>
       </c>
       <c r="O10" t="n">
-        <v>231.0986477399148</v>
+        <v>231.0986477399154</v>
       </c>
       <c r="P10" t="n">
-        <v>197.7448166665696</v>
+        <v>197.7448166665701</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.9082611482091</v>
+        <v>136.9082611482094</v>
       </c>
       <c r="R10" t="n">
-        <v>73.51517312333534</v>
+        <v>73.51517312333554</v>
       </c>
       <c r="S10" t="n">
-        <v>28.49344659875331</v>
+        <v>28.49344659875338</v>
       </c>
       <c r="T10" t="n">
-        <v>6.985873709657827</v>
+        <v>6.985873709657845</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08918136650627026</v>
+        <v>0.0891813665062705</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,16 +34451,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.94118660406885</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
         <v>83.39712583292157</v>
@@ -34711,7 +34711,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605652</v>
+        <v>232.3803535975801</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
@@ -34781,13 +34781,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>146.035000539178</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>208.082620374502</v>
       </c>
       <c r="O3" t="n">
         <v>161.1235481502633</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.13373767211393</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763041</v>
@@ -35021,7 +35021,7 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460656</v>
@@ -35033,7 +35033,7 @@
         <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.3132762680906</v>
+        <v>128.3132762680914</v>
       </c>
       <c r="K8" t="n">
-        <v>243.559367871629</v>
+        <v>243.5593678716302</v>
       </c>
       <c r="L8" t="n">
-        <v>339.4314397645066</v>
+        <v>339.4314397645081</v>
       </c>
       <c r="M8" t="n">
-        <v>409.6722089262889</v>
+        <v>409.6722089262906</v>
       </c>
       <c r="N8" t="n">
-        <v>420.9615460696959</v>
+        <v>420.9615460696977</v>
       </c>
       <c r="O8" t="n">
-        <v>384.0320900335447</v>
+        <v>384.0320900335463</v>
       </c>
       <c r="P8" t="n">
-        <v>292.9130081300884</v>
+        <v>292.9130081300897</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.3061304475223</v>
+        <v>171.3061304475233</v>
       </c>
       <c r="R8" t="n">
-        <v>13.37552070631619</v>
+        <v>13.37552070631679</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>183.5056174325559</v>
+        <v>183.5056174325563</v>
       </c>
       <c r="K9" t="n">
-        <v>328.411227073633</v>
+        <v>177.0749330544819</v>
       </c>
       <c r="L9" t="n">
-        <v>284.8895455070239</v>
+        <v>284.889545507025</v>
       </c>
       <c r="M9" t="n">
-        <v>352.0050543281402</v>
+        <v>352.0050543281415</v>
       </c>
       <c r="N9" t="n">
-        <v>375.8757674760601</v>
+        <v>375.8757674760615</v>
       </c>
       <c r="O9" t="n">
-        <v>321.4086563744296</v>
+        <v>321.4086563744308</v>
       </c>
       <c r="P9" t="n">
-        <v>238.430432887477</v>
+        <v>368.8403835749564</v>
       </c>
       <c r="Q9" t="n">
-        <v>319.0382871383617</v>
+        <v>319.0382871383624</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.92634333167859</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.23473443653772</v>
+        <v>22.23473443653802</v>
       </c>
       <c r="K10" t="n">
-        <v>167.6868188324725</v>
+        <v>167.686818832473</v>
       </c>
       <c r="L10" t="n">
-        <v>270.6687032342398</v>
+        <v>270.6687032342405</v>
       </c>
       <c r="M10" t="n">
-        <v>295.8762607397766</v>
+        <v>295.8762607397773</v>
       </c>
       <c r="N10" t="n">
-        <v>294.3304961125697</v>
+        <v>294.3304961125704</v>
       </c>
       <c r="O10" t="n">
-        <v>255.6837756539545</v>
+        <v>255.6837756539551</v>
       </c>
       <c r="P10" t="n">
-        <v>195.0233759314631</v>
+        <v>195.0233759314636</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.74621789651469</v>
+        <v>50.74621789651503</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7192231475259</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
